--- a/biology/Zoologie/Battus_lycidas/Battus_lycidas.xlsx
+++ b/biology/Zoologie/Battus_lycidas/Battus_lycidas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Battus lycidas est une espèce de lépidoptères (papillons) de la famille des Papilionidae, de la sous-famille des Papilioninae et du genre Battus.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Battus lycidas a été décrit par Pieter Cramer en 1777 sous le nom de Papilio lycidas[1].
-Noms vernaculaires
-Battus lycidas se nomme Cramer's Swallowtail ou Lycidas Swallowtail ou the Yellow-trailed Swallowtail en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus lycidas a été décrit par Pieter Cramer en 1777 sous le nom de Papilio lycidas.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Battus lycidas est un papillon d'une envergure de 52 mm à 55 mm sans queue. Le dessus est noir à gris foncé largement suffusé de vert, avec une ornementation de taches blanches aux postérieures, en particulier en position anale[2].
-Le revers est marron nacré avec aux postérieures une ligne submarginale de chevrons rouges.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus lycidas se nomme Cramer's Swallowtail ou Lycidas Swallowtail ou the Yellow-trailed Swallowtail en anglais.
 </t>
         </is>
       </c>
@@ -573,13 +590,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Aristoloches dont Aristolochia huberiana et Aristolochia constricta[1],[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus lycidas est un papillon d'une envergure de 52 mm à 55 mm sans queue. Le dessus est noir à gris foncé largement suffusé de vert, avec une ornementation de taches blanches aux postérieures, en particulier en position anale.
+Le revers est marron nacré avec aux postérieures une ligne submarginale de chevrons rouges.
 </t>
         </is>
       </c>
@@ -605,16 +624,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent dans le sud de l'Amérique du Nord, au Mexique et dans le nord de l'Amérique du Sud, au Surinam, en Guyane, au Venezuela, en Équateur et en Bolivie[1].
-Biotope
-Il réside dans les vallées.
-Protection
-Pas de statut de protection particulier.
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Aristoloches dont Aristolochia huberiana et Aristolochia constricta,.
 </t>
         </is>
       </c>
@@ -640,10 +661,119 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le sud de l'Amérique du Nord, au Mexique et dans le nord de l'Amérique du Sud, au Surinam, en Guyane, au Venezuela, en Équateur et en Bolivie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Battus_lycidas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_lycidas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les vallées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Battus_lycidas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_lycidas</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Battus_lycidas</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_lycidas</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Équateur a émis un timbre à son effigie en 1961.
 </t>
